--- a/笔记/DOP/DOP知识点.xlsx
+++ b/笔记/DOP/DOP知识点.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="13180" activeTab="1"/>
+    <workbookView windowWidth="24800" windowHeight="13180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="chechlist" sheetId="2" r:id="rId1"/>
@@ -2008,12 +2008,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>1. 捣乱大猩猩: 模拟可用区域故障
 2. 捣乱金刚: 地区故障
 3. 延迟猴子: RESTful引入延迟后停机，模拟服务降级，确保相关服务正常工作
@@ -3482,8 +3476,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="30">
@@ -3533,17 +3527,17 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3561,11 +3555,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3584,14 +3593,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -3600,8 +3601,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3615,61 +3663,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3746,13 +3740,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3764,43 +3824,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3812,19 +3836,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3842,31 +3860,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3878,49 +3878,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3998,8 +3992,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4020,6 +4014,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -4034,17 +4043,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4052,8 +4057,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4072,164 +4077,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4713,9 +4707,9 @@
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
+      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="32" customHeight="1" outlineLevelCol="6"/>

--- a/笔记/DOP/DOP知识点.xlsx
+++ b/笔记/DOP/DOP知识点.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24800" windowHeight="13180" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="13180" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="chechlist" sheetId="2" r:id="rId1"/>
@@ -2008,6 +2008,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1. 捣乱大猩猩: 模拟可用区域故障
 2. 捣乱金刚: 地区故障
 3. 延迟猴子: RESTful引入延迟后停机，模拟服务降级，确保相关服务正常工作
@@ -3477,8 +3483,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -3525,11 +3531,25 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3548,59 +3568,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -3610,37 +3577,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -3656,7 +3609,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3734,7 +3740,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3746,103 +3866,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3860,13 +3884,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3878,43 +3908,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3984,7 +3990,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3992,8 +4009,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4014,6 +4046,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -4028,52 +4075,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4082,148 +4088,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4706,8 +4712,8 @@
   <sheetPr/>
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
     </sheetView>
@@ -5713,8 +5719,8 @@
   <sheetPr/>
   <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelCol="2"/>
